--- a/jpcore-r4/feature/swg5-fix_med_admin_inj_rateratio/CodeSystem-jp-procedure-condition-codes-cs.xlsx
+++ b/jpcore-r4/feature/swg5-fix_med_admin_inj_rateratio/CodeSystem-jp-procedure-condition-codes-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T15:56:27+00:00</t>
+    <t>2022-07-13T12:06:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-fix_med_admin_inj_rateratio/CodeSystem-jp-procedure-condition-codes-cs.xlsx
+++ b/jpcore-r4/feature/swg5-fix_med_admin_inj_rateratio/CodeSystem-jp-procedure-condition-codes-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T12:06:13+00:00</t>
+    <t>2022-07-14T03:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
